--- a/documentatie/workbreakdownstructure(WBS).xlsx
+++ b/documentatie/workbreakdownstructure(WBS).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\Semester 4\web\proftaak2\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B14F7FDB-CF3C-4637-A557-F9B4A5F88443}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DF0ED7B8-19D7-49E9-BC5F-7417B61DB97C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,8 @@
     <sheet name="version" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#PROJECTNAME#'!$A$4:$K$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'#PROJECTNAME#'!$A$1:$K$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#PROJECTNAME#'!$A$4:$K$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'#PROJECTNAME#'!$A$1:$K$22</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="98">
   <si>
     <t>totaal</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Represents a requirement that stakeholders have agreed will not be implemented in a given release, but may be considered for the future. (note: occasionally the word "Would" is substituted for "Won't" to give a clearer understanding of this choice).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>calculator:</t>
@@ -140,12 +137,6 @@
     <t>Registreren</t>
   </si>
   <si>
-    <t>Cms gebruikers verifieren</t>
-  </si>
-  <si>
-    <t>Cms gebruikers rechtgen geven</t>
-  </si>
-  <si>
     <t>Content Management pagina</t>
   </si>
   <si>
@@ -233,7 +224,112 @@
     <t>Controleren of het bestand al bestaat</t>
   </si>
   <si>
-    <t>Kijken of je rechten hebt om een nieuw bestand te maken</t>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>Excel documenten converten naar html</t>
+  </si>
+  <si>
+    <t>Word bestanden converten naar pdf</t>
+  </si>
+  <si>
+    <t>Html bestanden converten naar pdf</t>
+  </si>
+  <si>
+    <t>Pdf bestanden opsplitsen in verschilende pagina's</t>
+  </si>
+  <si>
+    <t>Pdf bestanden converten naar Word bestanden</t>
+  </si>
+  <si>
+    <t>Reken houden met oudere versies van Word bestanden</t>
+  </si>
+  <si>
+    <t>Reken houden met oudere versies van Excel bestanden</t>
+  </si>
+  <si>
+    <t>Branding</t>
+  </si>
+  <si>
+    <t>Naam van het project bedenken</t>
+  </si>
+  <si>
+    <t>Logo ontwerpen</t>
+  </si>
+  <si>
+    <t>Database ontwerpen</t>
+  </si>
+  <si>
+    <t>Documentatie</t>
+  </si>
+  <si>
+    <t>Project plan</t>
+  </si>
+  <si>
+    <t>Functioneel ontwerp</t>
+  </si>
+  <si>
+    <t>Wireframes</t>
+  </si>
+  <si>
+    <t>Use cases</t>
+  </si>
+  <si>
+    <t>WBS</t>
+  </si>
+  <si>
+    <t>Technisch ontwerp</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Scenario's</t>
+  </si>
+  <si>
+    <t>CRPR lijst</t>
+  </si>
+  <si>
+    <t>Pitch powerpoint maken</t>
+  </si>
+  <si>
+    <t>Fancy poster</t>
+  </si>
+  <si>
+    <t>Technische poster</t>
+  </si>
+  <si>
+    <t>Kerntaak 2</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+  </si>
+  <si>
+    <t>Kerntaak 3</t>
+  </si>
+  <si>
+    <t>Kijken of je rechten hebt om een nieuwe versie te maken</t>
+  </si>
+  <si>
+    <t>RBRO, DBOS</t>
+  </si>
+  <si>
+    <t>Word bestanden worden niet omgezet waardoor we dat stuk van het project niet kunnen maken</t>
+  </si>
+  <si>
+    <t>Excel bestanden worden niet omgezet waardoor we dat stuk van het project niet kunnen maken</t>
+  </si>
+  <si>
+    <t>gebruikers verifieren</t>
+  </si>
+  <si>
+    <t>gebruikers rechtgen geven</t>
+  </si>
+  <si>
+    <t>Nieuwe colleges maken</t>
+  </si>
+  <si>
+    <t>Nieuwe opleidingen maken</t>
   </si>
 </sst>
 </file>
@@ -417,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -486,14 +582,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -775,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -786,9 +884,9 @@
     <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.88671875" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="11" width="34.5546875" style="1" customWidth="1" outlineLevel="1"/>
@@ -797,7 +895,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="30"/>
@@ -812,7 +910,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="30"/>
@@ -827,7 +925,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="31"/>
@@ -842,77 +940,124 @@
     </row>
     <row r="4" spans="1:11" s="16" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="33"/>
+      <c r="C5" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
+      <c r="B7" s="1">
+        <f>$A$6</f>
+        <v>2</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="35"/>
+      <c r="C8" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="1">
+        <v>170</v>
+      </c>
+      <c r="I8" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
+      <c r="C9" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -920,24 +1065,57 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>125</v>
+      </c>
+      <c r="I11" s="1">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="1">
+        <v>85</v>
+      </c>
+      <c r="I12" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -945,277 +1123,1527 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="1">
+        <v>125</v>
+      </c>
+      <c r="I13" s="1">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
+      <c r="B14" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="1">
+        <v>85</v>
+      </c>
+      <c r="I14" s="1">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
+      <c r="B15" s="1">
+        <f>$A$8</f>
+        <v>4</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>81</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="1">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
       <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
+      <c r="B17" s="1">
+        <v>11.12</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="1">
+        <v>210</v>
+      </c>
+      <c r="I19" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
+      <c r="B20" s="1">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="35"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <f>$A$17</f>
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="B24" s="1">
+        <f>$A$8</f>
+        <v>4</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="1">
+        <v>40</v>
+      </c>
+      <c r="I24" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <f>$A$24</f>
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="1">
+        <v>210</v>
+      </c>
+      <c r="I25" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <f>$A$24</f>
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="1">
+        <v>30</v>
+      </c>
+      <c r="I26" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <f>$A$8</f>
+        <v>4</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="1">
+        <v>40</v>
+      </c>
+      <c r="I27" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <f>$A$27</f>
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="1">
+        <v>40</v>
+      </c>
+      <c r="I28" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
+        <f>$A$27</f>
+        <v>23</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="1">
+        <v>125</v>
+      </c>
+      <c r="I29" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <f>$A$27</f>
+        <v>23</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <f>$A$27</f>
+        <v>23</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <f>$A$8</f>
+        <v>4</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="1">
+        <v>40</v>
+      </c>
+      <c r="I32" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <f>$A$32</f>
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="1">
+        <v>40</v>
+      </c>
+      <c r="I33" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <f>$A$33</f>
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="1">
+        <v>85</v>
+      </c>
+      <c r="I34" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <f>$A$33</f>
+        <v>29</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="1">
+        <v>30</v>
+      </c>
+      <c r="I35" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <f>$A$33</f>
+        <v>29</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="1">
+        <v>30</v>
+      </c>
+      <c r="I36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="1">
+        <v>15</v>
+      </c>
+      <c r="I37" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1">
+        <f>$A$33</f>
+        <v>29</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="1">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1">
+        <f>$A$33</f>
+        <v>29</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="1">
+        <v>85</v>
+      </c>
+      <c r="I39" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1">
+        <f>$A$33</f>
+        <v>29</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="1">
+        <v>15</v>
+      </c>
+      <c r="I40" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1">
+        <f>$A$40</f>
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="1">
+        <v>15</v>
+      </c>
+      <c r="I41" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1">
+        <f>$A$8</f>
+        <v>4</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="1">
+        <v>45</v>
+      </c>
+      <c r="I42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1">
+        <f>$A$42</f>
+        <v>38</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="1">
+        <v>65</v>
+      </c>
+      <c r="I43" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1">
+        <f>$A$43</f>
+        <v>39</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="1">
+        <v>45</v>
+      </c>
+      <c r="I44" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1">
+        <f>$A$42</f>
+        <v>38</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="1">
+        <v>30</v>
+      </c>
+      <c r="I45" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1">
+        <f>$A$45</f>
+        <v>41</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="1">
+        <v>45</v>
+      </c>
+      <c r="I46" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1">
+        <f>$A$46</f>
+        <v>42</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="1">
+        <v>45</v>
+      </c>
+      <c r="I47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <f>$A$46</f>
+        <v>42</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D25" s="19" t="s">
+      <c r="E48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1">
+        <f>$A$43</f>
+        <v>39</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="1">
+        <v>15</v>
+      </c>
+      <c r="I49" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <f>$A$43</f>
+        <v>39</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="1">
+        <v>15</v>
+      </c>
+      <c r="I50" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45.46</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="1">
+        <v>30</v>
+      </c>
+      <c r="I51" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1">
+        <f>$A$8</f>
+        <v>4</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="35"/>
+      <c r="E52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="1">
+        <v>40</v>
+      </c>
+      <c r="I52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1">
+        <f>$A$52</f>
+        <v>48</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="1">
+        <v>30</v>
+      </c>
+      <c r="I53" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1">
+        <f>$A$53</f>
+        <v>49</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>21</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" s="1">
+        <v>85</v>
+      </c>
+      <c r="I54" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1">
+        <f>$A$53</f>
+        <v>49</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>22</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="1">
+        <v>30</v>
+      </c>
+      <c r="I55" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1">
+        <f>$A$53</f>
+        <v>49</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>23</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>24</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>25</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>26</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="35"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D33" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="1">
+        <v>30</v>
+      </c>
+      <c r="I56" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1">
+        <f>$A$53</f>
+        <v>49</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>28</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1">
+        <v>90</v>
+      </c>
+      <c r="I57" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1">
+        <f>$A$57</f>
+        <v>53</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>29</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1">
+        <v>90</v>
+      </c>
+      <c r="I58" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1">
+        <f>$A$57</f>
+        <v>53</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="E59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1">
+        <v>40</v>
+      </c>
+      <c r="I59" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1">
+        <f>$A$57</f>
+        <v>53</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1">
+        <v>15</v>
+      </c>
+      <c r="I60" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1">
+        <f>$A$60</f>
+        <v>56</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" s="1">
+        <v>40</v>
+      </c>
+      <c r="I61" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1">
+        <f>$A$61</f>
+        <v>57</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" s="1">
         <v>30</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="I62" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>59</v>
       </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>31</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="B63" s="1">
+        <f>$A$62</f>
+        <v>58</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="1">
+        <v>40</v>
+      </c>
+      <c r="I63" s="1">
         <v>60</v>
       </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>32</v>
-      </c>
-      <c r="D38" s="1" t="s">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="35"/>
+      <c r="E64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>61</v>
       </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>33</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="D65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" s="1">
+        <v>840</v>
+      </c>
+      <c r="I65" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>62</v>
       </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>34</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>35</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H66" s="1">
+        <v>420</v>
+      </c>
+      <c r="I66" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67" s="1">
+        <v>420</v>
+      </c>
+      <c r="I67" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>36</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="D68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68" s="1">
+        <v>840</v>
+      </c>
+      <c r="I68" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
+      <c r="D69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" s="1">
+        <v>250</v>
+      </c>
+      <c r="I69" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70" s="1">
+        <f>$A$65</f>
+        <v>61</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="1">
+        <v>85</v>
+      </c>
+      <c r="I70" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
+      <c r="B71" s="1">
+        <f>$A$66</f>
+        <v>62</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="1">
+        <v>85</v>
+      </c>
+      <c r="I71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20">
-        <f>SUBTOTAL(9,H5:H42)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <f>SUBTOTAL(9,I5:I42)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20">
+        <f>ROUND(SUM(H5:H71)/60,1)</f>
+        <v>108.7</v>
+      </c>
+      <c r="I72" s="20">
+        <f>ROUND(SUM(I5:I71)/60,1)</f>
+        <v>97.3</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:K17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="5">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C31:D31"/>
+  <mergeCells count="9">
+    <mergeCell ref="C64:D64"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C52:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1412,13 +2840,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1426,10 +2854,10 @@
         <v>42286</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/documentatie/workbreakdownstructure(WBS).xlsx
+++ b/documentatie/workbreakdownstructure(WBS).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\Semester 4\web\proftaak2\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proftaak2\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A0CB2382-B442-4080-B315-9F136D1D5BC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{012902DB-3C2F-450C-9414-077DDD34CA3B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#PROJECTNAME#'!$A$4:$K$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'#PROJECTNAME#'!$A$1:$K$23</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="105">
   <si>
     <t>C</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>Versiebeheer op de bronbestanden</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -672,12 +675,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -728,63 +732,11 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4F25"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="hair">
           <color auto="1"/>
         </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
+        <right/>
         <top style="hair">
           <color auto="1"/>
         </top>
@@ -796,11 +748,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="hair">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
         <top style="hair">
           <color auto="1"/>
         </top>
@@ -982,6 +937,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
@@ -989,15 +953,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
@@ -1057,22 +1012,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB10A5DA-5C27-4D1B-87A6-C4623547DF9E}" name="Table1" displayName="Table1" ref="A4:K74" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
-  <autoFilter ref="A4:K74" xr:uid="{3893D912-67C3-4A9C-A459-05687588B04F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB10A5DA-5C27-4D1B-87A6-C4623547DF9E}" name="Table1" displayName="Table1" ref="A4:K75" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A4:K75" xr:uid="{3893D912-67C3-4A9C-A459-05687588B04F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{03F66626-F0C3-4604-B956-B802A5EF4EBE}" name="WBS id" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{F405A4EB-6CC8-4F42-A5A5-4521717E0CBC}" name="predecessor" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{59B78380-14B2-4989-8CF3-F9ED255C2840}" name="Column1" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{F8DAE50E-C4B0-4345-98C4-81D079A3779E}" name="task" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{DB7F997A-EB3B-4E69-B4FB-F7249D23BAE6}" name="requirement level_x000a_(MoSCoW)" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{ACA5E2C1-A59F-4BCE-A755-FD66F6F36BE7}" name="developer" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{722D123C-6729-40A6-A9CE-41F34185D031}" name="Risc" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{AD8B1C4E-75DC-4849-A31A-BB1268A7159E}" name="duration_x000a_(plan) min" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{891F622B-C7BD-4D7D-8A0E-50A2809C30FA}" name="duration_x000a_(do) min" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{890DFCFE-4754-48BF-90AD-E38C8939105C}" name="reflection_x000a_(check)" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{03F66626-F0C3-4604-B956-B802A5EF4EBE}" name="WBS id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{F405A4EB-6CC8-4F42-A5A5-4521717E0CBC}" name="predecessor" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{59B78380-14B2-4989-8CF3-F9ED255C2840}" name="Column1" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{F8DAE50E-C4B0-4345-98C4-81D079A3779E}" name="task" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{DB7F997A-EB3B-4E69-B4FB-F7249D23BAE6}" name="requirement level_x000a_(MoSCoW)" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{ACA5E2C1-A59F-4BCE-A755-FD66F6F36BE7}" name="developer" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{722D123C-6729-40A6-A9CE-41F34185D031}" name="Risc" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{AD8B1C4E-75DC-4849-A31A-BB1268A7159E}" name="duration_x000a_(plan) min" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{891F622B-C7BD-4D7D-8A0E-50A2809C30FA}" name="duration_x000a_(do) min" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{890DFCFE-4754-48BF-90AD-E38C8939105C}" name="reflection_x000a_(check)" dataDxfId="8">
       <calculatedColumnFormula>MROUND(I5,5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B2D7FA79-2072-4B82-9138-CF58485E59FA}" name="transfer_x000a_(act)" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{B2D7FA79-2072-4B82-9138-CF58485E59FA}" name="transfer_x000a_(act)" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1341,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2576,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H53" s="1">
         <v>130</v>
@@ -2591,13 +2546,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="1">
-        <f>$A$8</f>
-        <v>4</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="27"/>
+        <f>$A$44</f>
+        <v>40</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E54" s="1" t="s">
         <v>2</v>
       </c>
@@ -2605,11 +2560,12 @@
         <v>99</v>
       </c>
       <c r="H54" s="1">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I54" s="1">
-        <v>120</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="J54" s="42"/>
       <c r="K54" s="26"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -2617,12 +2573,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="1">
-        <f>$A$54</f>
-        <v>50</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>46</v>
-      </c>
+        <f>$A$8</f>
+        <v>4</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="27"/>
       <c r="E55" s="1" t="s">
         <v>2</v>
       </c>
@@ -2630,10 +2587,10 @@
         <v>99</v>
       </c>
       <c r="H55" s="1">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="I55" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="K55" s="26"/>
     </row>
@@ -2646,19 +2603,19 @@
         <v>51</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H56" s="1">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="I56" s="1">
-        <v>265</v>
+        <v>75</v>
       </c>
       <c r="K56" s="26"/>
     </row>
@@ -2667,23 +2624,23 @@
         <v>53</v>
       </c>
       <c r="B57" s="1">
-        <f>$A$55</f>
-        <v>51</v>
+        <f>$A$56</f>
+        <v>52</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H57" s="1">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="I57" s="1">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="K57" s="26"/>
     </row>
@@ -2692,12 +2649,12 @@
         <v>54</v>
       </c>
       <c r="B58" s="1">
-        <f>$A$55</f>
+        <f>$A$56</f>
+        <v>52</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E58" s="1" t="s">
         <v>2</v>
       </c>
@@ -2705,10 +2662,10 @@
         <v>99</v>
       </c>
       <c r="H58" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="I58" s="1">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="K58" s="26"/>
     </row>
@@ -2717,11 +2674,11 @@
         <v>55</v>
       </c>
       <c r="B59" s="1">
-        <f>$A$55</f>
-        <v>51</v>
+        <f>$A$56</f>
+        <v>52</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>2</v>
@@ -2729,12 +2686,11 @@
       <c r="F59" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G59" s="1"/>
       <c r="H59" s="1">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="I59" s="1">
-        <v>325</v>
+        <v>170</v>
       </c>
       <c r="K59" s="26"/>
     </row>
@@ -2743,11 +2699,11 @@
         <v>56</v>
       </c>
       <c r="B60" s="1">
-        <f>$A$59</f>
-        <v>55</v>
+        <f>$A$56</f>
+        <v>52</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>2</v>
@@ -2757,10 +2713,10 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="I60" s="1">
-        <v>145</v>
+        <v>325</v>
       </c>
       <c r="K60" s="26"/>
     </row>
@@ -2769,11 +2725,11 @@
         <v>57</v>
       </c>
       <c r="B61" s="1">
-        <f>$A$59</f>
-        <v>55</v>
+        <f>$A$60</f>
+        <v>56</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>2</v>
@@ -2783,10 +2739,10 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="I61" s="1">
-        <v>360</v>
+        <v>145</v>
       </c>
       <c r="K61" s="26"/>
     </row>
@@ -2795,11 +2751,11 @@
         <v>58</v>
       </c>
       <c r="B62" s="1">
-        <f>$A$59</f>
+        <f>$A$60</f>
+        <v>56</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>2</v>
@@ -2809,10 +2765,10 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="I62" s="1">
-        <v>105</v>
+        <v>360</v>
       </c>
       <c r="K62" s="26"/>
     </row>
@@ -2821,11 +2777,11 @@
         <v>59</v>
       </c>
       <c r="B63" s="1">
-        <f>$A$62</f>
-        <v>58</v>
+        <f>$A$60</f>
+        <v>56</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>2</v>
@@ -2833,11 +2789,12 @@
       <c r="F63" s="12" t="s">
         <v>99</v>
       </c>
+      <c r="G63" s="1"/>
       <c r="H63" s="1">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="I63" s="1">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="K63" s="26"/>
     </row>
@@ -2850,7 +2807,7 @@
         <v>59</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>2</v>
@@ -2859,10 +2816,10 @@
         <v>99</v>
       </c>
       <c r="H64" s="1">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="I64" s="1">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="K64" s="26"/>
     </row>
@@ -2875,19 +2832,19 @@
         <v>60</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H65" s="1">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="I65" s="1">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="K65" s="26"/>
     </row>
@@ -2895,36 +2852,37 @@
       <c r="A66" s="27">
         <v>62</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" s="27"/>
+      <c r="B66" s="1">
+        <f>$A$65</f>
+        <v>61</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E66" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F66" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="1">
+        <v>230</v>
+      </c>
+      <c r="I66" s="1">
+        <v>240</v>
+      </c>
       <c r="K66" s="26"/>
     </row>
-    <row r="67" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="27">
         <v>63</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="C67" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="27"/>
       <c r="E67" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H67" s="1">
-        <v>1140</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1085</v>
       </c>
       <c r="K67" s="26"/>
     </row>
@@ -2933,7 +2891,7 @@
         <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>2</v>
@@ -2942,34 +2900,37 @@
         <v>98</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H68" s="1">
-        <v>570</v>
+        <v>1140</v>
       </c>
       <c r="I68" s="1">
-        <v>540</v>
+        <v>1085</v>
       </c>
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="27">
         <v>65</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>87</v>
+        <v>98</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="H69" s="1">
         <v>570</v>
       </c>
       <c r="I69" s="1">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K69" s="26"/>
     </row>
@@ -2978,19 +2939,19 @@
         <v>66</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H70" s="1">
-        <v>1140</v>
+        <v>570</v>
       </c>
       <c r="I70" s="1">
-        <v>1195</v>
+        <v>600</v>
       </c>
       <c r="K70" s="26"/>
     </row>
@@ -2999,19 +2960,19 @@
         <v>67</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H71" s="1">
-        <v>380</v>
+        <v>1140</v>
       </c>
       <c r="I71" s="1">
-        <v>360</v>
+        <v>1195</v>
       </c>
       <c r="K71" s="26"/>
     </row>
@@ -3019,15 +2980,11 @@
       <c r="A72" s="27">
         <v>68</v>
       </c>
-      <c r="B72" s="1">
-        <f>$A$67</f>
-        <v>63</v>
-      </c>
       <c r="D72" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>99</v>
@@ -3036,7 +2993,7 @@
         <v>380</v>
       </c>
       <c r="I72" s="1">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K72" s="26"/>
     </row>
@@ -3049,7 +3006,7 @@
         <v>64</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>7</v>
@@ -3061,70 +3018,91 @@
         <v>380</v>
       </c>
       <c r="I73" s="1">
+        <v>400</v>
+      </c>
+      <c r="K73" s="26"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="27">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1">
+        <f>$A$69</f>
+        <v>65</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H74" s="1">
+        <v>380</v>
+      </c>
+      <c r="I74" s="1">
         <v>360</v>
       </c>
-      <c r="K73" s="26"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="35"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36" t="s">
+      <c r="K74" s="26"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="35"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="39">
-        <f>ROUND(SUM(H5:H73)/60,1)</f>
-        <v>276.89999999999998</v>
-      </c>
-      <c r="I74" s="39">
-        <f>ROUND(SUM(I5:I73)/60,1)</f>
-        <v>276.2</v>
-      </c>
-      <c r="J74" s="37">
-        <f t="shared" ref="J69:J100" si="0">MROUND(I74,5)</f>
-        <v>275</v>
-      </c>
-      <c r="K74" s="40"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D75" t="s">
-        <v>87</v>
-      </c>
-      <c r="E75">
-        <f>SUMIF($F3:$F$73,"RBRO, DBOS",$H3:$H$73)/60</f>
-        <v>40.333333333333336</v>
-      </c>
-      <c r="J75"/>
-      <c r="K75"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="39">
+        <f>ROUND(SUM(H5:H74)/60,1)</f>
+        <v>278.89999999999998</v>
+      </c>
+      <c r="I75" s="39">
+        <f>ROUND(SUM(I5:I74)/60,1)</f>
+        <v>278.3</v>
+      </c>
+      <c r="J75" s="37">
+        <f t="shared" ref="J75" si="0">MROUND(I75,5)</f>
+        <v>280</v>
+      </c>
+      <c r="K75" s="40"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E76">
-        <f>SUMIF($F4:$F$73,"DBOS",$H4:$H$73)/60</f>
-        <v>130.75</v>
-      </c>
-      <c r="J76" t="s">
-        <v>103</v>
-      </c>
+        <f>SUMIF($F3:$F$74,"RBRO, DBOS",$H3:$H$74)/60</f>
+        <v>11.833333333333334</v>
+      </c>
+      <c r="J76"/>
       <c r="K76"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77">
+        <f>SUMIF($F4:$F$74,"DBOS",$H4:$H$74)/60</f>
+        <v>130.58333333333334</v>
+      </c>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
         <v>98</v>
       </c>
-      <c r="E77">
-        <f>SUMIF($F5:$F$73,"RBRO",$H5:$H$73)/60</f>
-        <v>103.16666666666667</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="E78">
+        <f>SUMIF($F5:$F$74,"RBRO",$H5:$H$74)/60</f>
+        <v>133.83333333333334</v>
+      </c>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81" s="1"/>
@@ -3266,29 +3244,33 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F5:F73">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="RBRO, DBOS">
+  <conditionalFormatting sqref="F5:F74">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="RBRO, DBOS">
       <formula>NOT(ISERROR(SEARCH("RBRO, DBOS",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="DBOS">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="DBOS">
       <formula>NOT(ISERROR(SEARCH("DBOS",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="RBRO">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="RBRO">
       <formula>NOT(ISERROR(SEARCH("RBRO",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E73">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="WONT">
+  <conditionalFormatting sqref="E5:E74">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="WONT">
       <formula>NOT(ISERROR(SEARCH("WONT",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="COULD">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="COULD">
       <formula>NOT(ISERROR(SEARCH("COULD",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="SHOULD">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="SHOULD">
       <formula>NOT(ISERROR(SEARCH("SHOULD",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="MUST">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="MUST">
       <formula>NOT(ISERROR(SEARCH("MUST",E5)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documentatie/workbreakdownstructure(WBS).xlsx
+++ b/documentatie/workbreakdownstructure(WBS).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proftaak2\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\Semester 4\web\proftaak2\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{012902DB-3C2F-450C-9414-077DDD34CA3B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FC0496AF-533C-40AF-BD36-67E9FADBC299}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,9 +679,271 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -731,268 +993,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1012,22 +1012,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB10A5DA-5C27-4D1B-87A6-C4623547DF9E}" name="Table1" displayName="Table1" ref="A4:K75" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB10A5DA-5C27-4D1B-87A6-C4623547DF9E}" name="Table1" displayName="Table1" ref="A4:K75" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A4:K75" xr:uid="{3893D912-67C3-4A9C-A459-05687588B04F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{03F66626-F0C3-4604-B956-B802A5EF4EBE}" name="WBS id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{F405A4EB-6CC8-4F42-A5A5-4521717E0CBC}" name="predecessor" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{59B78380-14B2-4989-8CF3-F9ED255C2840}" name="Column1" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{F8DAE50E-C4B0-4345-98C4-81D079A3779E}" name="task" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{DB7F997A-EB3B-4E69-B4FB-F7249D23BAE6}" name="requirement level_x000a_(MoSCoW)" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{ACA5E2C1-A59F-4BCE-A755-FD66F6F36BE7}" name="developer" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{722D123C-6729-40A6-A9CE-41F34185D031}" name="Risc" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{AD8B1C4E-75DC-4849-A31A-BB1268A7159E}" name="duration_x000a_(plan) min" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{891F622B-C7BD-4D7D-8A0E-50A2809C30FA}" name="duration_x000a_(do) min" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{890DFCFE-4754-48BF-90AD-E38C8939105C}" name="reflection_x000a_(check)" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{03F66626-F0C3-4604-B956-B802A5EF4EBE}" name="WBS id" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F405A4EB-6CC8-4F42-A5A5-4521717E0CBC}" name="predecessor" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{59B78380-14B2-4989-8CF3-F9ED255C2840}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{F8DAE50E-C4B0-4345-98C4-81D079A3779E}" name="task" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{DB7F997A-EB3B-4E69-B4FB-F7249D23BAE6}" name="requirement level_x000a_(MoSCoW)" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{ACA5E2C1-A59F-4BCE-A755-FD66F6F36BE7}" name="developer" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{722D123C-6729-40A6-A9CE-41F34185D031}" name="Risc" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{AD8B1C4E-75DC-4849-A31A-BB1268A7159E}" name="duration_x000a_(plan) min" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{891F622B-C7BD-4D7D-8A0E-50A2809C30FA}" name="duration_x000a_(do) min" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{890DFCFE-4754-48BF-90AD-E38C8939105C}" name="reflection_x000a_(check)" dataDxfId="1">
       <calculatedColumnFormula>MROUND(I5,5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B2D7FA79-2072-4B82-9138-CF58485E59FA}" name="transfer_x000a_(act)" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{B2D7FA79-2072-4B82-9138-CF58485E59FA}" name="transfer_x000a_(act)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1296,10 +1296,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K75" sqref="A1:K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3250,32 +3253,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F5:F74">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="RBRO, DBOS">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="RBRO, DBOS">
       <formula>NOT(ISERROR(SEARCH("RBRO, DBOS",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="DBOS">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="DBOS">
       <formula>NOT(ISERROR(SEARCH("DBOS",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="RBRO">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="RBRO">
       <formula>NOT(ISERROR(SEARCH("RBRO",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E74">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="WONT">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="WONT">
       <formula>NOT(ISERROR(SEARCH("WONT",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="COULD">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="COULD">
       <formula>NOT(ISERROR(SEARCH("COULD",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="SHOULD">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="SHOULD">
       <formula>NOT(ISERROR(SEARCH("SHOULD",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="MUST">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="MUST">
       <formula>NOT(ISERROR(SEARCH("MUST",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -3452,6 +3455,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3494,6 +3498,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
